--- a/1980.xlsx
+++ b/1980.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samsung\Desktop\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DB4AD98-B3A1-4F64-A889-E4D8A90CFFC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19AA25F-3678-487D-979C-58FBC8AC57D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{20AD7B22-3217-4274-9A3E-D41565D27C75}"/>
   </bookViews>
@@ -1108,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AE8ADEE-10D6-4B9A-B626-1AB14D9A693A}">
   <dimension ref="A1:E232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="A244" sqref="A244"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B232" sqref="B2:B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2458,6 +2458,9 @@
       <c r="A80" t="s">
         <v>79</v>
       </c>
+      <c r="B80">
+        <v>1980</v>
+      </c>
       <c r="D80">
         <v>9.60700564486703</v>
       </c>
@@ -2551,6 +2554,9 @@
       <c r="A86" t="s">
         <v>85</v>
       </c>
+      <c r="B86">
+        <v>1980</v>
+      </c>
       <c r="E86">
         <v>24.8</v>
       </c>
@@ -3151,6 +3157,9 @@
       <c r="A122" t="s">
         <v>123</v>
       </c>
+      <c r="B122">
+        <v>1980</v>
+      </c>
       <c r="E122">
         <v>11.5</v>
       </c>
@@ -3465,6 +3474,9 @@
       <c r="A141" t="s">
         <v>143</v>
       </c>
+      <c r="B141">
+        <v>1980</v>
+      </c>
       <c r="E141">
         <v>15.4</v>
       </c>
@@ -4272,6 +4284,9 @@
       <c r="A189" t="s">
         <v>187</v>
       </c>
+      <c r="B189">
+        <v>1980</v>
+      </c>
       <c r="D189">
         <v>11.9369750267771</v>
       </c>
@@ -4452,6 +4467,9 @@
     <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" t="s">
         <v>203</v>
+      </c>
+      <c r="B200">
+        <v>1980</v>
       </c>
       <c r="E200">
         <v>26.8</v>
